--- a/biology/Botanique/Jardin_de_l'apothicaire/Jardin_de_l'apothicaire.xlsx
+++ b/biology/Botanique/Jardin_de_l'apothicaire/Jardin_de_l'apothicaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27apothicaire</t>
+          <t>Jardin_de_l'apothicaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Jardin de l'apothicaire de l'université d'État de Moscou (russe : Аптекарский огород), créé en 1706 par Pierre Ier le Grand[1], est le plus vieux jardin botanique russe. Il est membre de la Botanic Gardens Conservation International[2].
+Le Jardin de l'apothicaire de l'université d'État de Moscou (russe : Аптекарский огород), créé en 1706 par Pierre Ier le Grand, est le plus vieux jardin botanique russe. Il est membre de la Botanic Gardens Conservation International.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27apothicaire</t>
+          <t>Jardin_de_l'apothicaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a été fondé en 1706 par Pierre Ier le Grand dans la banlieue nord du Moscou de l'époque, derrière la tour Soukharev. On y transféra le jardin de la pharmacie du Vieux Gostiny Dvor où on cultivait des plantes médicinales, d'où son nom. Pierre Ier a participé personnellement à l'aménagement du jardin, en plantant dans un nouveau jardin trois conifères - épicéa, sapin et mélèze - "pour guider les citoyens dans leurs différences". Le mélèze est encore vivant.
 À l'origine, le propriétaire du jardin était l'ordre des pharmaciens, puis l'hôpital de Moscou, et à la fin du XVIIIe siècle, il a été cédé à l'Académie de médico-chirurgie de Moscou.
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27apothicaire</t>
+          <t>Jardin_de_l'apothicaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Directeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 1735-1742 : Traugott Gerber
